--- a/source/lore/species/Aging.xlsx
+++ b/source/lore/species/Aging.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Hobbies\TTRPG\Iuncterra\wiki\source\_assets\species\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\Documents\GitHub\Iuncterra\source\lore\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE853DC4-B930-4DFA-B289-880FE623BFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32545E11-4BD9-44C2-BBEA-4D520D74EF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{1BE3EDDB-DCCE-4B1A-8A91-717F8D05B840}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1BE3EDDB-DCCE-4B1A-8A91-717F8D05B840}"/>
   </bookViews>
   <sheets>
     <sheet name="Lifespan" sheetId="1" r:id="rId1"/>
-    <sheet name="Multiplier" sheetId="2" r:id="rId2"/>
+    <sheet name="Elf" sheetId="3" r:id="rId2"/>
+    <sheet name="Multiplier" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Human</t>
   </si>
@@ -79,6 +80,12 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Equivalent</t>
   </si>
 </sst>
 </file>
@@ -187,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,7 +234,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -333,7 +340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,13 +492,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823BF021-5F91-43D9-A8D8-82E0B8EAA4AE}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -530,7 +537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -571,7 +578,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -610,7 +617,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -647,7 +654,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +675,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -689,7 +696,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -710,7 +717,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -731,7 +738,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -752,7 +759,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -773,7 +780,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -794,7 +801,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -815,7 +822,7 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -847,12 +854,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98299D97-A66D-4FE3-8295-5ADDAD7CF8DC}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <f>ROUNDDOWN(A2/4, 0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B21" si="0">ROUNDDOWN(A3/4, 0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>108</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>126</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>144</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>162</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>180</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>198</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>216</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>234</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>252</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>270</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>288</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>306</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>324</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>342</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>360</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8C7025-BE2C-4D73-8B2D-C56DDE8FD0F7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/lore/species/Aging.xlsx
+++ b/source/lore/species/Aging.xlsx
@@ -8,39 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd\Documents\GitHub\Iuncterra\source\lore\species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B0D09E-954F-409C-8D79-5C21831B09C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78924FF3-BCAA-4392-BAD1-6DC83FAAC747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1BE3EDDB-DCCE-4B1A-8A91-717F8D05B840}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{1BE3EDDB-DCCE-4B1A-8A91-717F8D05B840}"/>
   </bookViews>
   <sheets>
     <sheet name="Multipliers" sheetId="2" r:id="rId1"/>
     <sheet name="Calculations" sheetId="8" r:id="rId2"/>
     <sheet name="Gandrite" sheetId="9" r:id="rId3"/>
-    <sheet name="Orc" sheetId="10" r:id="rId4"/>
-    <sheet name="Iotun" sheetId="11" r:id="rId5"/>
-    <sheet name="Halfling" sheetId="12" r:id="rId6"/>
-    <sheet name="Human" sheetId="13" r:id="rId7"/>
-    <sheet name="Tabaxi" sheetId="14" r:id="rId8"/>
-    <sheet name="Jotun" sheetId="15" r:id="rId9"/>
-    <sheet name="Dwarf" sheetId="5" r:id="rId10"/>
-    <sheet name="Loxodon" sheetId="16" r:id="rId11"/>
-    <sheet name="Dragonborn" sheetId="17" r:id="rId12"/>
-    <sheet name="Elf" sheetId="4" r:id="rId13"/>
+    <sheet name="Aarakocra" sheetId="18" r:id="rId4"/>
+    <sheet name="Orc" sheetId="10" r:id="rId5"/>
+    <sheet name="Iotun" sheetId="11" r:id="rId6"/>
+    <sheet name="Halfling" sheetId="12" r:id="rId7"/>
+    <sheet name="Human" sheetId="13" r:id="rId8"/>
+    <sheet name="Tabaxi" sheetId="14" r:id="rId9"/>
+    <sheet name="Jotun" sheetId="15" r:id="rId10"/>
+    <sheet name="Dwarf" sheetId="5" r:id="rId11"/>
+    <sheet name="Loxodon" sheetId="16" r:id="rId12"/>
+    <sheet name="Dragonborn" sheetId="17" r:id="rId13"/>
+    <sheet name="Elf" sheetId="4" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Calculations!$A$1:$N$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Dragonborn!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Dwarf!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Elf!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Aarakocra!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Calculations!$A$1:$O$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Dragonborn!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Dwarf!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Elf!$A$1:$C$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Gandrite!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Halfling!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Human!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Iotun!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Jotun!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Loxodon!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Multipliers!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Orc!$A$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Tabaxi!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Halfling!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Human!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Iotun!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Jotun!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Loxodon!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Multipliers!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Orc!$A$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Tabaxi!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>Human</t>
   </si>
@@ -114,6 +116,9 @@
   </si>
   <si>
     <t>Dragonborn</t>
+  </si>
+  <si>
+    <t>Aarakocra</t>
   </si>
 </sst>
 </file>
@@ -484,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8C7025-BE2C-4D73-8B2D-C56DDE8FD0F7}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -522,120 +527,132 @@
     </row>
     <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C12" si="0">ROUND(B3/80, 2)</f>
-        <v>0.75</v>
+        <f>ROUND(B3/80, 2)</f>
+        <v>0.63</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>60</v>
       </c>
       <c r="C4" s="2">
+        <f t="shared" ref="C4:C13" si="0">ROUND(B4/80, 2)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
         <v>70</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>80</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>90</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>120</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>160</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>240</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>260</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>3.25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>320</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -646,6 +663,134 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DAA251-A3AC-41B4-B564-81031136326F}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>INDEX(Calculations!A2:Z2,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>INDEX(Calculations!A3:Z3,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>INDEX(Calculations!A4:Z4,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>INDEX(Calculations!A5:Z5,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>INDEX(Calculations!A6:Z6,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>29</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>INDEX(Calculations!A7:Z7,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>45</v>
+      </c>
+      <c r="B7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>INDEX(Calculations!A8:Z8,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>60</v>
+      </c>
+      <c r="B8" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>INDEX(Calculations!A9:Z9,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>75</v>
+      </c>
+      <c r="B9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>INDEX(Calculations!A10:Z10,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>90</v>
+      </c>
+      <c r="B10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>INDEX(Calculations!A11:Z11,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>105</v>
+      </c>
+      <c r="B11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>INDEX(Calculations!A12:Z12,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
+        <v>120</v>
+      </c>
+      <c r="B12" s="2">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA769EDE-BB0A-4527-8FC4-D12389C54FFD}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -773,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB44273B-F51A-4B04-818D-9C793F3153CC}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -901,7 +1046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0579E886-E235-41EB-9160-34754F8A62BA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1029,7 +1174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67A7EA0-8335-405D-9608-6E80BEA6A0D9}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1159,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E0E66A-1726-4F79-9537-D6312105DB21}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1315,7 @@
     <col min="1" max="1" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1182,7 +1327,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1193,37 +1338,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -1237,47 +1385,51 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
+        <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B2), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
         <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B2), 0)</f>
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B2), 0)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B2), 0)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B2), 0)</f>
         <v>4</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B2), 0)</f>
         <v>4</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B2), 0)</f>
         <v>4</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B2), 0)</f>
         <v>5</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B2), 0)</f>
         <v>6</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B2), 0)</f>
         <v>6</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <f>ROUND(A2*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B2), 0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -1291,47 +1443,51 @@
         <v>6</v>
       </c>
       <c r="E3" s="2">
+        <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B3), 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
         <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B3), 0)</f>
         <v>7</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B3), 0)</f>
         <v>7</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B3), 0)</f>
         <v>8</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B3), 0)</f>
         <v>8</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B3), 0)</f>
         <v>8</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B3), 0)</f>
         <v>10</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B3), 0)</f>
         <v>12</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B3), 0)</f>
         <v>16</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B3), 0)</f>
         <v>17</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <f>ROUND(A3*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B3), 0)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>12</v>
       </c>
@@ -1345,47 +1501,51 @@
         <v>8</v>
       </c>
       <c r="E4" s="2">
+        <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B4), 0)</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
         <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B4), 0)</f>
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B4), 0)</f>
         <v>10</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B4), 0)</f>
         <v>11</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B4), 0)</f>
         <v>12</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B4), 0)</f>
         <v>13</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B4), 0)</f>
         <v>16</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B4), 0)</f>
         <v>20</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B4), 0)</f>
         <v>28</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B4), 0)</f>
         <v>30</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <f>ROUND(A4*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B4), 0)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>16</v>
       </c>
@@ -1399,47 +1559,51 @@
         <v>9</v>
       </c>
       <c r="E5" s="2">
+        <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B5), 0)</f>
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
         <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B5), 0)</f>
         <v>13</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B5), 0)</f>
         <v>13</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B5), 0)</f>
         <v>14</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B5), 0)</f>
         <v>16</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B5), 0)</f>
         <v>18</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B5), 0)</f>
         <v>23</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B5), 0)</f>
         <v>29</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B5), 0)</f>
         <v>43</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B5), 0)</f>
         <v>46</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <f>ROUND(A5*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B5), 0)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>20</v>
       </c>
@@ -1453,47 +1617,51 @@
         <v>11</v>
       </c>
       <c r="E6" s="2">
+        <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B6), 0)</f>
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
         <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B6), 0)</f>
         <v>15</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B6), 0)</f>
         <v>15</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B6), 0)</f>
         <v>18</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B6), 0)</f>
         <v>20</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B6), 0)</f>
         <v>22</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B6), 0)</f>
         <v>29</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B6), 0)</f>
         <v>39</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B6), 0)</f>
         <v>58</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B6), 0)</f>
         <v>63</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <f>ROUND(A6*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B6), 0)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>30</v>
       </c>
@@ -1507,47 +1675,51 @@
         <v>15</v>
       </c>
       <c r="E7" s="2">
+        <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B7), 0)</f>
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
         <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B7), 0)</f>
         <v>23</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B7), 0)</f>
         <v>23</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B7), 0)</f>
         <v>26</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B7), 0)</f>
         <v>30</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B7), 0)</f>
         <v>34</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B7), 0)</f>
         <v>45</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B7), 0)</f>
         <v>60</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B7), 0)</f>
         <v>90</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B7), 0)</f>
         <v>98</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <f>ROUND(A7*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B7), 0)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>40</v>
       </c>
@@ -1561,47 +1733,51 @@
         <v>20</v>
       </c>
       <c r="E8" s="2">
+        <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B8), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
         <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B8), 0)</f>
         <v>30</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B8), 0)</f>
         <v>30</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B8), 0)</f>
         <v>35</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B8), 0)</f>
         <v>40</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B8), 0)</f>
         <v>45</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B8), 0)</f>
         <v>60</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B8), 0)</f>
         <v>80</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B8), 0)</f>
         <v>120</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B8), 0)</f>
         <v>130</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <f>ROUND(A8*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B8), 0)</f>
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>50</v>
       </c>
@@ -1615,47 +1791,51 @@
         <v>25</v>
       </c>
       <c r="E9" s="2">
+        <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B9), 0)</f>
+        <v>32</v>
+      </c>
+      <c r="F9" s="2">
         <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B9), 0)</f>
         <v>38</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B9), 0)</f>
         <v>38</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B9), 0)</f>
         <v>44</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B9), 0)</f>
         <v>50</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B9), 0)</f>
         <v>57</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B9), 0)</f>
         <v>75</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B9), 0)</f>
         <v>100</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B9), 0)</f>
         <v>150</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B9), 0)</f>
         <v>163</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <f>ROUND(A9*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B9), 0)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>60</v>
       </c>
@@ -1669,47 +1849,51 @@
         <v>30</v>
       </c>
       <c r="E10" s="2">
+        <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B10), 0)</f>
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
         <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B10), 0)</f>
         <v>45</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B10), 0)</f>
         <v>45</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B10), 0)</f>
         <v>53</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B10), 0)</f>
         <v>60</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B10), 0)</f>
         <v>68</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B10), 0)</f>
         <v>90</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B10), 0)</f>
         <v>120</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B10), 0)</f>
         <v>180</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B10), 0)</f>
         <v>195</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <f>ROUND(A10*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B10), 0)</f>
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>70</v>
       </c>
@@ -1723,47 +1907,51 @@
         <v>35</v>
       </c>
       <c r="E11" s="2">
+        <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B11), 0)</f>
+        <v>44</v>
+      </c>
+      <c r="F11" s="2">
         <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B11), 0)</f>
         <v>53</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B11), 0)</f>
         <v>53</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B11), 0)</f>
         <v>62</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B11), 0)</f>
         <v>70</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B11), 0)</f>
         <v>79</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B11), 0)</f>
         <v>105</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B11), 0)</f>
         <v>140</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B11), 0)</f>
         <v>210</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B11), 0)</f>
         <v>228</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <f>ROUND(A11*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B11), 0)</f>
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>80</v>
       </c>
@@ -1777,42 +1965,46 @@
         <v>40</v>
       </c>
       <c r="E12" s="2">
+        <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Aarakocra",Multipliers!A:A,0),1)-1)*B12), 0)</f>
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
         <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Orc",Multipliers!A:A,0),1)-1)*B12), 0)</f>
         <v>60</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Iotun",Multipliers!A:A,0),1)-1)*B12), 0)</f>
         <v>60</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Halfling",Multipliers!A:A,0),1)-1)*B12), 0)</f>
         <v>70</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Human",Multipliers!A:A,0),1)-1)*B12), 0)</f>
         <v>80</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Tabaxi",Multipliers!A:A,0),1)-1)*B12), 0)</f>
         <v>90</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Jotun",Multipliers!A:A,0),1)-1)*B12), 0)</f>
         <v>120</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Dwarf",Multipliers!A:A,0),1)-1)*B12), 0)</f>
         <v>160</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Loxodon",Multipliers!A:A,0),1)-1)*B12), 0)</f>
         <v>240</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Dragonborn",Multipliers!A:A,0),1)-1)*B12), 0)</f>
         <v>260</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <f>ROUND(A12*(1+(INDEX(Multipliers!C:C,MATCH("Elf",Multipliers!A:A,0),1)-1)*B12), 0)</f>
         <v>320</v>
       </c>
@@ -1951,6 +2143,134 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675E20C3-953E-4299-A284-2CED9CFBED87}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>INDEX(Calculations!A2:Z2,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>INDEX(Calculations!A3:Z3,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>INDEX(Calculations!A4:Z4,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>INDEX(Calculations!A5:Z5,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>INDEX(Calculations!A6:Z6,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>INDEX(Calculations!A7:Z7,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>INDEX(Calculations!A8:Z8,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>INDEX(Calculations!A9:Z9,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>INDEX(Calculations!A10:Z10,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>INDEX(Calculations!A11:Z11,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>INDEX(Calculations!A12:Z12,1,MATCH("Aarakocra", Calculations!A$1:Z$1, 0))</f>
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BCBD10-E241-453A-A3A2-83AF5F2642CA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2078,7 +2398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E14049-BE19-4C65-9628-3C5A6A6F4F35}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2206,7 +2526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765EF127-74B2-429F-B051-98868F24DDD1}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2334,7 +2654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53A3F6A-5CEE-4F2F-9A98-742C6688C72F}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2462,7 +2782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EF7871-CF86-488E-9F38-864ADA4BE64C}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2588,132 +2908,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DAA251-A3AC-41B4-B564-81031136326F}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <f>INDEX(Calculations!A2:Z2,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <f>INDEX(Calculations!A3:Z3,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <f>INDEX(Calculations!A4:Z4,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <f>INDEX(Calculations!A5:Z5,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <f>INDEX(Calculations!A6:Z6,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>29</v>
-      </c>
-      <c r="B6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <f>INDEX(Calculations!A7:Z7,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>45</v>
-      </c>
-      <c r="B7" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <f>INDEX(Calculations!A8:Z8,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>60</v>
-      </c>
-      <c r="B8" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <f>INDEX(Calculations!A9:Z9,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>75</v>
-      </c>
-      <c r="B9" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <f>INDEX(Calculations!A10:Z10,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>90</v>
-      </c>
-      <c r="B10" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <f>INDEX(Calculations!A11:Z11,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>105</v>
-      </c>
-      <c r="B11" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <f>INDEX(Calculations!A12:Z12,1,MATCH("Jotun", Calculations!A$1:Z$1, 0))</f>
-        <v>120</v>
-      </c>
-      <c r="B12" s="2">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>